--- a/data/축산물품질평가원/축산물품질평가원_GPT통합.xlsx
+++ b/data/축산물품질평가원/축산물품질평가원_GPT통합.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alsxo\Documents\GitHub\ibco-review_analysis\data\축산물품질평가원\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F49125-236A-4CCA-B516-75F4DA64A1AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB7C7B61-1E3F-446F-B59A-25D0496EEFC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19090" yWindow="-110" windowWidth="38620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1867,10 +1867,13 @@
   <dimension ref="A1:R81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="O6" sqref="O6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="15" max="15" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:18" ht="25.2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
